--- a/biology/Botanique/Ail_à_trois_angles/Ail_à_trois_angles.xlsx
+++ b/biology/Botanique/Ail_à_trois_angles/Ail_à_trois_angles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_trois_angles</t>
+          <t>Ail_à_trois_angles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium triquetrum
 L'ail à trois angles ou ail triquètre est une espèce de plantes à fleurs de la famille des Amaryllidacées qui pousse en région méditerranéenne.
 Utilisée pour l'ornement, elle s'est naturalisée en Grande-Bretagne, en Bretagne et en Normandie, principalement sur le littoral. Elle pousse souvent sur les talus, en groupes assez denses.
-Sa prolifération en tapis dense, particulièrement en périphérie des zones urbaines et le long des sentiers, entraîne la disparition des espèces locales. L'ail triquètre est considéré en Bretagne comme espèce exotique envahissante au statut d'Invasive avérée[1] et classé comme espèce sous surveillance en Normandie[2]. Un impact économique a aussi été signalé en Australie où l'espèce colonise les pâtures. Le lait voit alors sa qualité altérée, prenant un goût et une odeur forts[1].
+Sa prolifération en tapis dense, particulièrement en périphérie des zones urbaines et le long des sentiers, entraîne la disparition des espèces locales. L'ail triquètre est considéré en Bretagne comme espèce exotique envahissante au statut d'Invasive avérée et classé comme espèce sous surveillance en Normandie. Un impact économique a aussi été signalé en Australie où l'espèce colonise les pâtures. Le lait voit alors sa qualité altérée, prenant un goût et une odeur forts.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_trois_angles</t>
+          <t>Ail_à_trois_angles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Ail triquètre est une plante vivace, gazonnante, de 20 à 50 cm.
 Elle possède à sa base un petit bulbe ovoïde, blanchâtre, passant insensiblement à la tige. Cette dernière, épaisse, présente 3 angles aigus. Dans son quart inférieur, elle porte 2 à 3 feuilles linéaires, larges de 5 à 10 mm, légèrement en gouttière sur leur face supérieure et carénées en dessous, atteignant à peu près la hauteur de la tige. Les feuilles sont linéaires, plates à l'extrémité arrondie.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_trois_angles</t>
+          <t>Ail_à_trois_angles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Couleur dominante des fleurs : blanc
